--- a/drafter/Rankings.xlsx
+++ b/drafter/Rankings.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\CSV-Drafter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Site\drafter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1454ED-AB68-41F0-AFBF-602DC80E0D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DF4DF6-3607-4E29-869A-1D27B93BD2E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Rankings" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Rankings" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="1184">
   <si>
     <t>ESPN</t>
   </si>
@@ -3571,6 +3572,9 @@
   </si>
   <si>
     <t>Only if I have Zeke</t>
+  </si>
+  <si>
+    <t>WR / TE</t>
   </si>
 </sst>
 </file>
@@ -4519,7 +4523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4642,1042 +4646,1042 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>9</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H6" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="H8" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>15</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>11</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>16</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H12" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>19</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2">
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="H14" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>17</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>8</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="H16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>20</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="H17" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>13</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="H18" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>14</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
-        <v>12</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2">
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
-        <v>23</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
-        <v>29</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="H22" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
-        <v>18</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2">
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="H23" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
-        <v>50</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H24" s="2">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
-        <v>33</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G25" s="2">
-        <v>3</v>
+        <v>-23</v>
       </c>
       <c r="H25" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
-        <v>39</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G26" s="2">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="H26" s="2">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
-        <v>28</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G27" s="2">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
-        <v>22</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G28" s="2">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="H28" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
-        <v>34</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G29" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="H29" s="2">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
-        <v>21</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G30" s="2">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="H30" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
-        <v>27</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G31" s="2">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
-        <v>38</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="G32" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H32" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
-        <v>30</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G33" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="2">
-        <v>11</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G34" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H34" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
-        <v>45</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E35" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G35" s="2">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="H35" s="2">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
-        <v>26</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E36" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G36" s="2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H36" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
-        <v>32</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E37" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="G37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
-        <v>24</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G38" s="2">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="H38" s="2">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
-        <v>35</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="G39" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
-        <v>40</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G40" s="2">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H40" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
-        <v>25</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E41" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G41" s="2">
-        <v>-14</v>
+        <v>15</v>
       </c>
       <c r="H41" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
+        <v>46</v>
+      </c>
+      <c r="B42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
-        <v>56</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E42" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G42" s="2">
-        <v>-24</v>
+        <v>-14</v>
       </c>
       <c r="H42" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
-        <v>47</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E43" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="G43" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H43" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
-        <v>37</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E44" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G44" s="2">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="H44" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -5708,369 +5712,372 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B46" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="G46" s="2">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="H46" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
+        <v>58</v>
+      </c>
+      <c r="B47" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6</v>
+      </c>
+      <c r="H47" s="2">
         <v>47</v>
-      </c>
-      <c r="B47" s="2">
-        <v>36</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="2">
-        <v>7</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="2">
-        <v>4</v>
-      </c>
-      <c r="H47" s="2">
-        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="2">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>59</v>
+      </c>
+      <c r="B49" s="2">
         <v>48</v>
       </c>
-      <c r="B48" s="2">
-        <v>42</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="2">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="2">
-        <v>-2</v>
-      </c>
-      <c r="H48" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+      <c r="C49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="2">
+        <v>6</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="2">
+        <v>5</v>
+      </c>
+      <c r="H49" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2">
         <v>49</v>
       </c>
-      <c r="B49" s="2">
-        <v>70</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E49" s="2">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="2">
-        <v>18</v>
-      </c>
-      <c r="H49" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>50</v>
-      </c>
-      <c r="B50" s="2">
-        <v>55</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E50" s="2">
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="2">
+        <v>-20</v>
+      </c>
+      <c r="H50" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="2">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="2">
+        <v>11</v>
+      </c>
+      <c r="H51" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>83</v>
+      </c>
+      <c r="B52" s="2">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="2">
+        <v>16</v>
+      </c>
+      <c r="H52" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>55</v>
+      </c>
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="2">
+        <v>-17</v>
+      </c>
+      <c r="H53" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>68</v>
+      </c>
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="2">
+        <v>7</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="2">
+        <v>-4</v>
+      </c>
+      <c r="H54" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>69</v>
+      </c>
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="2">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2">
+        <v>-8</v>
+      </c>
+      <c r="H55" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>50</v>
+      </c>
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="2">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="G50" s="2">
-        <v>7</v>
-      </c>
-      <c r="H50" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2">
-        <v>67</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="2">
-        <v>7</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="2">
-        <v>3</v>
-      </c>
-      <c r="H51" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>52</v>
-      </c>
-      <c r="B52" s="2">
-        <v>68</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" s="2">
-        <v>6</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="2">
-        <v>-16</v>
-      </c>
-      <c r="H52" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2">
-        <v>74</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E53" s="2">
-        <v>10</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="2">
-        <v>13</v>
-      </c>
-      <c r="H53" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
-        <v>54</v>
-      </c>
-      <c r="B54" s="2">
-        <v>58</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="2">
-        <v>9</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="2">
-        <v>-29</v>
-      </c>
-      <c r="H54" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2">
-        <v>52</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="2">
-        <v>9</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="2">
-        <v>-17</v>
-      </c>
-      <c r="H55" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
-        <v>56</v>
-      </c>
-      <c r="B56" s="2">
-        <v>66</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E56" s="2">
-        <v>12</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G56" s="2">
         <v>7</v>
       </c>
       <c r="H56" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>41</v>
+      </c>
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="2">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="2">
+        <v>-24</v>
+      </c>
+      <c r="H57" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+      <c r="B58" s="2">
         <v>57</v>
       </c>
-      <c r="B57" s="2">
-        <v>86</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E57" s="2">
-        <v>11</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2">
-        <v>22</v>
-      </c>
-      <c r="H57" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+      <c r="C58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="2">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="2">
+        <v>8</v>
+      </c>
+      <c r="H58" s="2">
+        <v>67</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>54</v>
+      </c>
+      <c r="B59" s="2">
         <v>58</v>
       </c>
-      <c r="B58" s="2">
-        <v>46</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="2">
-        <v>8</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="2">
-        <v>6</v>
-      </c>
-      <c r="H58" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
-        <v>59</v>
-      </c>
-      <c r="B59" s="2">
-        <v>48</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E59" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G59" s="2">
-        <v>5</v>
+        <v>-29</v>
       </c>
       <c r="H59" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -6096,622 +6103,619 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="E61" s="2">
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H61" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>66</v>
+      </c>
+      <c r="B62" s="2">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="2">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="2">
+        <v>10</v>
+      </c>
+      <c r="H62" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>70</v>
+      </c>
+      <c r="B63" s="2">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="2">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="2">
+        <v>12</v>
+      </c>
+      <c r="H63" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+      <c r="B64" s="2">
         <v>63</v>
       </c>
-      <c r="B62" s="2">
-        <v>43</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="2">
-        <v>10</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="2">
-        <v>-2</v>
-      </c>
-      <c r="H62" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
-        <v>64</v>
-      </c>
-      <c r="B63" s="2">
-        <v>49</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" s="2">
-        <v>10</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G63" s="2">
-        <v>-20</v>
-      </c>
-      <c r="H63" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>65</v>
-      </c>
-      <c r="B64" s="2">
-        <v>65</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E64" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G64" s="2">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H64" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E65" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G65" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H65" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E66" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="G66" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="H66" s="2">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B67" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="E67" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G67" s="2">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="H67" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B68" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E68" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="G68" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H68" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B69" s="2">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="E69" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G69" s="2">
-        <v>20</v>
+        <v>-16</v>
       </c>
       <c r="H69" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E70" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="G70" s="2">
-        <v>-12</v>
+        <v>19</v>
       </c>
       <c r="H70" s="2">
-        <v>68</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B71" s="2">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="E71" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="G71" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H71" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E72" s="2">
         <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="G72" s="2">
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="H72" s="2">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E73" s="2">
         <v>9</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G73" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" s="2">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E74" s="2">
-        <v>11</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G74" s="2">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="H74" s="2">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B75" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E75" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="G75" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H75" s="2">
-        <v>67</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E76" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G76" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H76" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E77" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G77" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H77" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E78" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G78" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H78" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E79" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="G79" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H79" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B80" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E80" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="G80" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H80" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E81" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="G81" s="2">
         <v>11</v>
       </c>
       <c r="H81" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
+        <v>85</v>
+      </c>
+      <c r="B82" s="2">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="2">
+        <v>10</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="2">
+        <v>6</v>
+      </c>
+      <c r="H82" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
         <v>89</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B83" s="2">
         <v>82</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E83" s="2">
         <v>7</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G83" s="2">
         <v>20</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H83" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
-        <v>90</v>
-      </c>
-      <c r="B83" s="2">
-        <v>84</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E83" s="2">
-        <v>11</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G83" s="2">
-        <v>29</v>
-      </c>
-      <c r="H83" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B84" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="E84" s="2">
         <v>9</v>
@@ -6720,117 +6724,117 @@
         <v>13</v>
       </c>
       <c r="G84" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H84" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E85" s="2">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="2">
+        <v>29</v>
+      </c>
+      <c r="H85" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
         <v>73</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="2">
-        <v>12</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G85" s="2">
-        <v>15</v>
-      </c>
-      <c r="H85" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
-        <v>94</v>
-      </c>
       <c r="B86" s="2">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="E86" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G86" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H86" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B87" s="2">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E87" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H87" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="E88" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G88" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H88" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>98</v>
       </c>
@@ -6856,70 +6860,70 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E90" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G90" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H90" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>144</v>
+      </c>
+      <c r="B91" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
-        <v>106</v>
-      </c>
-      <c r="B91" s="2">
-        <v>80</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="E91" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="G91" s="2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H91" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="E92" s="2">
         <v>12</v>
@@ -6927,40 +6931,37 @@
       <c r="F92" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G92" s="2">
-        <v>27</v>
-      </c>
       <c r="H92" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E93" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G93" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H93" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>114</v>
       </c>
@@ -6986,758 +6987,761 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="B95" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="E95" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="G95" s="2">
+        <v>-12</v>
       </c>
       <c r="H95" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E96" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G96" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H96" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="E97" s="2">
+        <v>4</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="2">
         <v>6</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G97" s="2">
-        <v>34</v>
-      </c>
       <c r="H97" s="2">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="E98" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
+      </c>
+      <c r="G98" s="2">
+        <v>21</v>
       </c>
       <c r="H98" s="2">
-        <v>113</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>1093</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E99" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G99" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="H99" s="2">
-        <v>99</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>1091</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="B100" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="E100" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G100" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H100" s="2">
-        <v>95</v>
+        <v>103</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E101" s="2">
         <v>9</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G101" s="2">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H101" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E102" s="2">
         <v>9</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="G102" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H102" s="2">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="B103" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E103" s="2">
         <v>11</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="G103" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H103" s="2">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E104" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="G104" s="2">
+        <v>46</v>
       </c>
       <c r="H104" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" s="2">
-        <v>144</v>
-      </c>
       <c r="B105" s="2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>236</v>
+        <v>507</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>237</v>
+        <v>508</v>
       </c>
       <c r="E105" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G105" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H105" s="2">
-        <v>98</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B106" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E106" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="G106" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H106" s="2">
-        <v>103</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>1092</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="E107" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="H107" s="2">
-        <v>141</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>1182</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="B108" s="2">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="E108" s="2">
         <v>7</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="G108" s="2">
+        <v>67</v>
       </c>
       <c r="H108" s="2">
-        <v>120</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>1094</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="2">
-        <v>217</v>
-      </c>
       <c r="B109" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="E109" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G109" s="2">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="H109" s="2">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="2">
-        <v>225</v>
-      </c>
       <c r="B110" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E110" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G110" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H110" s="2">
-        <v>100</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>1090</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B111" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>507</v>
+        <v>253</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>508</v>
+        <v>254</v>
       </c>
       <c r="E111" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>69</v>
+        <v>150</v>
+      </c>
+      <c r="G111" s="2">
+        <v>113</v>
       </c>
       <c r="H111" s="2">
-        <v>234</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B112" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="E112" s="2">
+        <v>11</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B113" s="2">
+        <v>112</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E113" s="2">
+        <v>11</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="2">
+        <v>125</v>
+      </c>
+      <c r="H113" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>116</v>
+      </c>
+      <c r="B114" s="2">
+        <v>113</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E114" s="2">
+        <v>7</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H114" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B115" s="2">
+        <v>114</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E115" s="2">
+        <v>7</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H115" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B116" s="2">
+        <v>115</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E116" s="2">
         <v>6</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H112" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B113" s="2">
-        <v>109</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E113" s="2">
+      <c r="F116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H116" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B117" s="2">
+        <v>116</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E117" s="2">
+        <v>8</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H117" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B118" s="2">
+        <v>117</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E118" s="2">
         <v>10</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G113" s="2">
-        <v>53</v>
-      </c>
-      <c r="H113" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B114" s="2">
-        <v>110</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="F118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2">
+        <v>118</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E119" s="2">
+        <v>6</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H119" s="2">
+        <v>113</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B120" s="2">
+        <v>119</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E120" s="2">
+        <v>6</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H120" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B121" s="2">
+        <v>120</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E121" s="2">
+        <v>8</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B122" s="2">
+        <v>121</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E122" s="2">
+        <v>12</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H122" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B123" s="2">
+        <v>122</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E123" s="2">
         <v>10</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G114" s="2">
-        <v>113</v>
-      </c>
-      <c r="H114" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B115" s="2">
-        <v>111</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E115" s="2">
-        <v>11</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B116" s="2">
-        <v>112</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E116" s="2">
-        <v>11</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="2">
+      <c r="F123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H123" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B124" s="2">
+        <v>123</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E124" s="2">
+        <v>7</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H124" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B125" s="2">
+        <v>124</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E125" s="2">
+        <v>8</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>173</v>
+      </c>
+      <c r="B126" s="2">
         <v>125</v>
       </c>
-      <c r="H116" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B117" s="2">
-        <v>114</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="C126" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E126" s="2">
         <v>7</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H117" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B118" s="2">
-        <v>115</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E118" s="2">
-        <v>6</v>
-      </c>
-      <c r="F118" s="2" t="s">
+      <c r="H126" s="2">
         <v>120</v>
       </c>
-      <c r="H118" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B119" s="2">
-        <v>116</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E119" s="2">
-        <v>8</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H119" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B120" s="2">
-        <v>117</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E120" s="2">
-        <v>10</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B121" s="2">
-        <v>119</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E121" s="2">
-        <v>6</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H121" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B122" s="2">
-        <v>120</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E122" s="2">
-        <v>8</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H122" s="2">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B123" s="2">
-        <v>121</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E123" s="2">
-        <v>12</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H123" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B124" s="2">
-        <v>122</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E124" s="2">
-        <v>10</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H124" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B125" s="2">
-        <v>123</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E125" s="2">
-        <v>7</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H125" s="2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B126" s="2">
-        <v>124</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E126" s="2">
-        <v>8</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H126" s="2">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I126" s="4" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B127" s="2">
         <v>126</v>
       </c>
@@ -7760,7 +7764,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B128" s="2">
         <v>127</v>
       </c>
@@ -14726,7 +14730,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I525">
-    <sortCondition ref="A2:A525"/>
+    <sortCondition ref="B2:B525"/>
   </sortState>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="7">
@@ -14766,6 +14770,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D181A8B1-F0A2-4F56-9709-FE3AD8AFBB07}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I525"/>
   <sheetViews>
@@ -25014,7 +25043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
